--- a/web/ExcelWrite/withHead.xlsx
+++ b/web/ExcelWrite/withHead.xlsx
@@ -14,30 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>问题</t>
-  </si>
-  <si>
-    <t>选项</t>
-  </si>
-  <si>
-    <t>答案</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
+  <si>
+    <t>选择题</t>
   </si>
   <si>
     <t>1. （容易）2014年2月27日，中共中央总书记、国家主席、中央军委主席、中央网络安全和信息化领导小组组长习近平2月27日下午主持召开中央网络安全和信息化领导小组第一次会议并发表重要讲话。他强调，_______和_____是事关国家安全和国家发展、事关广大人民群众工作生活的重大战略问题。</t>
   </si>
   <si>
-    <t>A． 信息安全、信息化-B． 网络安全、信息化-C． 网络安全、信息安全-D． 安全、发展</t>
+    <t>A.信息安全、信息化</t>
+  </si>
+  <si>
+    <t>B.网络安全、信息化</t>
+  </si>
+  <si>
+    <t>C.网络安全、信息安全</t>
+  </si>
+  <si>
+    <t>D.安全、发展</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2. （容易）2016年4月19日，习近平总书记在网络安全和信息化工作座谈会上指出，网络空间的竞争，归根结底是____竞争。</t>
+  </si>
+  <si>
+    <t>A.人才</t>
+  </si>
+  <si>
+    <t>B.技术</t>
+  </si>
+  <si>
+    <t>C.资金投入</t>
+  </si>
+  <si>
+    <t>D.安全制度</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>2. （容易）2016年4月19日，习近平总书记在网络安全和信息化工作座谈会上指出，网络空间的竞争，归根结底是____竞争。</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>3. （容易）2016年4月19日，习近平总书记在网络安全和信息化工作座谈会上指出，网络空间的竞争，归根结底是____竞争。</t>
+  </si>
+  <si>
+    <t>4. （容易）2016年4月19日，习近平总书记在网络安全和信息化工作座谈会上指出，网络空间的竞争，归根结底是____竞争。</t>
+  </si>
+  <si>
+    <t>5. （容易）2016年4月19日，习近平总书记在网络安全和信息化工作座谈会上指出，网络空间的竞争，归根结底是____竞争。</t>
+  </si>
+  <si>
+    <t>6. （容易）2016年4月19日，习近平总书记在网络安全和信息化工作座谈会上指出，网络空间的竞争，归根结底是____竞争。</t>
+  </si>
+  <si>
+    <t>7. （容易）2016年4月19日，习近平总书记在网络安全和信息化工作座谈会上指出，网络空间的竞争，归根结底是____竞争。</t>
+  </si>
+  <si>
+    <t>简答题</t>
+  </si>
+  <si>
+    <t>8.  利用GF（2^8)的点乘运算，计算3•（6E）=？；2•（87）=？</t>
+  </si>
+  <si>
+    <t>9.  (5^60+1)%56=?</t>
   </si>
 </sst>
 </file>
@@ -50,7 +89,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -59,21 +98,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,35 +138,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +164,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -178,8 +210,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,13 +243,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,7 +258,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,13 +288,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,19 +360,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,49 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,108 +442,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,32 +476,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -497,15 +487,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,167 +509,199 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1012,50 +1025,200 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
-    <col min="2" max="2" width="38.25" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="2" max="2" width="72" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="40.5" spans="1:3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>11111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>1111111</v>
       </c>
     </row>
   </sheetData>
